--- a/zephyr/scripts/zephyr-scripts.xlsx
+++ b/zephyr/scripts/zephyr-scripts.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Kconfig.lib" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -802,6 +803,663 @@
         <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="14058900"/>
+          <a:ext cx="7191375" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="16973550"/>
+          <a:ext cx="8258175" cy="6029325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9315450" y="18468975"/>
+          <a:ext cx="7562850" cy="3581400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="23488650"/>
+          <a:ext cx="12058650" cy="3829050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="27946350"/>
+          <a:ext cx="12496800" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="32918400"/>
+          <a:ext cx="12582525" cy="5210175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="38747700"/>
+          <a:ext cx="14697075" cy="4905375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1032" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="44234100"/>
+          <a:ext cx="15192375" cy="3724275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1033" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="790575" y="48282225"/>
+          <a:ext cx="14735175" cy="7743825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="57264300"/>
+          <a:ext cx="14506575" cy="6115050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1035" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="64465200"/>
+          <a:ext cx="14516100" cy="7029450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="838200" y="64617600"/>
+          <a:ext cx="14516100" cy="7029450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>459</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="组合 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1371600" y="72523350"/>
+          <a:ext cx="19516725" cy="6296025"/>
+          <a:chOff x="1371600" y="72523350"/>
+          <a:chExt cx="19516725" cy="6296025"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="1036" name="Picture 12"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1371600" y="72523350"/>
+            <a:ext cx="6810375" cy="6296025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="1037" name="Picture 13"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8277225" y="72523350"/>
+            <a:ext cx="12611100" cy="5562600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1146,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="M425" sqref="M425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/zephyr/scripts/zephyr-scripts.xlsx
+++ b/zephyr/scripts/zephyr-scripts.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\study_note\zephyr\scripts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C69C07-F989-4B74-BB34-65AD45390465}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12345" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,6 @@
     <sheet name="Kconfig.lib" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -33,8 +38,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +91,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -106,7 +119,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -153,7 +172,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -200,7 +225,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPr id="1027" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -247,7 +278,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPr id="1029" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -294,7 +331,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="组合 7"/>
+        <xdr:cNvPr id="8" name="组合 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -307,7 +350,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="1028" name="Picture 4"/>
+          <xdr:cNvPr id="1028" name="Picture 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -339,7 +388,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="1030" name="Picture 6"/>
+          <xdr:cNvPr id="1030" name="Picture 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -392,7 +447,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPr id="2049" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -439,7 +500,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPr id="2050" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -486,7 +553,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2051" name="Picture 3"/>
+        <xdr:cNvPr id="2051" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -533,7 +606,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2052" name="Picture 4"/>
+        <xdr:cNvPr id="2052" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -580,7 +659,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2053" name="Picture 5"/>
+        <xdr:cNvPr id="2053" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -627,7 +712,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2054" name="Picture 6"/>
+        <xdr:cNvPr id="2054" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -679,7 +770,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPr id="3073" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -726,7 +823,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3074" name="Picture 2"/>
+        <xdr:cNvPr id="3074" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -773,7 +876,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3075" name="Picture 3"/>
+        <xdr:cNvPr id="3075" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000030C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -820,7 +929,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -867,7 +982,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -914,7 +1035,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPr id="1027" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -961,7 +1088,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPr id="1028" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1008,7 +1141,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPr id="1029" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1055,7 +1194,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPr id="1030" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1102,7 +1247,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPr id="1031" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1149,7 +1300,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1032" name="Picture 8"/>
+        <xdr:cNvPr id="1032" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1196,7 +1353,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1033" name="Picture 9"/>
+        <xdr:cNvPr id="1033" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1243,7 +1406,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPr id="1034" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1290,7 +1459,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1035" name="Picture 11"/>
+        <xdr:cNvPr id="1035" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1337,7 +1512,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 11"/>
+        <xdr:cNvPr id="16" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1384,20 +1565,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="组合 18"/>
+        <xdr:cNvPr id="19" name="组合 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1371600" y="72523350"/>
-          <a:ext cx="19516725" cy="6296025"/>
+          <a:off x="1219200" y="77358240"/>
+          <a:ext cx="17383125" cy="6707505"/>
           <a:chOff x="1371600" y="72523350"/>
           <a:chExt cx="19516725" cy="6296025"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="1036" name="Picture 12"/>
+          <xdr:cNvPr id="1036" name="Picture 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -1429,7 +1622,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="1037" name="Picture 13"/>
+          <xdr:cNvPr id="1037" name="Picture 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -1462,11 +1661,368 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>465</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>480</xdr:row>
+      <xdr:rowOff>134953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B304E38-5175-446A-BE64-C13734668806}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219201" y="85039200"/>
+          <a:ext cx="8953500" cy="2878153"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>483</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>275048</xdr:colOff>
+      <xdr:row>506</xdr:row>
+      <xdr:rowOff>31855</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9DE630B-1181-4DE8-B6AE-0593BB594F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="88331040"/>
+          <a:ext cx="9419048" cy="4238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>519</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>560305</xdr:colOff>
+      <xdr:row>579</xdr:row>
+      <xdr:rowOff>163261</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="组合 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63CF5C4-10F0-4BA2-80AB-0AACFAE3BA42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="609600" y="95006160"/>
+          <a:ext cx="13361905" cy="11044621"/>
+          <a:chOff x="609600" y="95006160"/>
+          <a:chExt cx="13361905" cy="11044621"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="图片 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82D6A973-0FC2-4096-94A7-A4437C1FB68C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1082040" y="95006160"/>
+            <a:ext cx="12171428" cy="6457143"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="图片 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D4EAB97-9B20-40B1-8125-1B8D269558B0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="609600" y="101498400"/>
+            <a:ext cx="13361905" cy="4552381"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>612</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>115047</xdr:colOff>
+      <xdr:row>634</xdr:row>
+      <xdr:rowOff>170929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9783EC44-E85D-4588-BD4F-E7E3CC7CBD12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1211580" y="111945420"/>
+          <a:ext cx="9266667" cy="4171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>582</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>103467</xdr:colOff>
+      <xdr:row>611</xdr:row>
+      <xdr:rowOff>153623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D75E937-54E0-40DD-8B70-F39034BA70AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="106436160"/>
+          <a:ext cx="10466667" cy="5457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>639</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>179962</xdr:colOff>
+      <xdr:row>658</xdr:row>
+      <xdr:rowOff>77661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8095A3D-3229-4CFC-8A59-E215BE90C467}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="116860320"/>
+          <a:ext cx="8104762" cy="3552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>660</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>141714</xdr:colOff>
+      <xdr:row>677</xdr:row>
+      <xdr:rowOff>52945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6320565A-F7A0-418F-A71E-E21F787CC809}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="120700800"/>
+          <a:ext cx="9285714" cy="3161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1508,7 +2064,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1540,9 +2096,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1574,6 +2148,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1749,24 +2341,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C60:C94"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="104.375" customWidth="1"/>
+    <col min="3" max="3" width="104.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="60" spans="3:3">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:3" ht="27">
+    <row r="94" spans="3:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="C94" s="1" t="s">
         <v>1</v>
       </c>
@@ -1779,16 +2371,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B35"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="Q82" sqref="Q82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>2</v>
       </c>
@@ -1801,14 +2393,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="M425" sqref="M425"/>
+    <sheetView tabSelected="1" topLeftCell="A641" workbookViewId="0">
+      <selection activeCell="B661" sqref="B661"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/zephyr/scripts/zephyr-scripts.xlsx
+++ b/zephyr/scripts/zephyr-scripts.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\study_note\zephyr\scripts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C69C07-F989-4B74-BB34-65AD45390465}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,8 +32,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,7 +116,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -175,7 +169,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -228,7 +222,7 @@
         <xdr:cNvPr id="1027" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -281,7 +275,7 @@
         <xdr:cNvPr id="1029" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -334,7 +328,7 @@
         <xdr:cNvPr id="8" name="组合 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -353,7 +347,7 @@
           <xdr:cNvPr id="1028" name="Picture 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -391,7 +385,7 @@
           <xdr:cNvPr id="1030" name="Picture 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -450,7 +444,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -503,7 +497,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -556,7 +550,7 @@
         <xdr:cNvPr id="2051" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -609,7 +603,7 @@
         <xdr:cNvPr id="2052" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -662,7 +656,7 @@
         <xdr:cNvPr id="2053" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -715,7 +709,7 @@
         <xdr:cNvPr id="2054" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -773,7 +767,7 @@
         <xdr:cNvPr id="3073" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000010C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -826,7 +820,7 @@
         <xdr:cNvPr id="3074" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000020C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -879,7 +873,7 @@
         <xdr:cNvPr id="3075" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000030C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000030C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,7 +926,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -985,7 +979,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1038,7 +1032,7 @@
         <xdr:cNvPr id="1027" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1091,7 +1085,7 @@
         <xdr:cNvPr id="1028" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1144,7 +1138,7 @@
         <xdr:cNvPr id="1029" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,7 +1191,7 @@
         <xdr:cNvPr id="1030" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,7 +1244,7 @@
         <xdr:cNvPr id="1031" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1303,7 +1297,7 @@
         <xdr:cNvPr id="1032" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1356,7 +1350,7 @@
         <xdr:cNvPr id="1033" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1409,7 +1403,7 @@
         <xdr:cNvPr id="1034" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1456,7 @@
         <xdr:cNvPr id="1035" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1509,7 @@
         <xdr:cNvPr id="16" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1562,7 @@
         <xdr:cNvPr id="19" name="组合 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1576,8 +1570,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1219200" y="77358240"/>
-          <a:ext cx="17383125" cy="6707505"/>
+          <a:off x="1371600" y="72523350"/>
+          <a:ext cx="19516725" cy="6296025"/>
           <a:chOff x="1371600" y="72523350"/>
           <a:chExt cx="19516725" cy="6296025"/>
         </a:xfrm>
@@ -1587,7 +1581,7 @@
           <xdr:cNvPr id="1036" name="Picture 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C040000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1625,7 +1619,7 @@
           <xdr:cNvPr id="1037" name="Picture 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D040000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1679,7 +1673,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B304E38-5175-446A-BE64-C13734668806}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B304E38-5175-446A-BE64-C13734668806}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1682,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1723,7 +1717,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9DE630B-1181-4DE8-B6AE-0593BB594F36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9DE630B-1181-4DE8-B6AE-0593BB594F36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +1726,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1767,7 +1761,7 @@
         <xdr:cNvPr id="6" name="组合 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63CF5C4-10F0-4BA2-80AB-0AACFAE3BA42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F63CF5C4-10F0-4BA2-80AB-0AACFAE3BA42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,8 +1769,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="609600" y="95006160"/>
-          <a:ext cx="13361905" cy="11044621"/>
+          <a:off x="685800" y="89073990"/>
+          <a:ext cx="14962105" cy="10358821"/>
           <a:chOff x="609600" y="95006160"/>
           <a:chExt cx="13361905" cy="11044621"/>
         </a:xfrm>
@@ -1786,7 +1780,7 @@
           <xdr:cNvPr id="4" name="图片 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82D6A973-0FC2-4096-94A7-A4437C1FB68C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82D6A973-0FC2-4096-94A7-A4437C1FB68C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1795,7 +1789,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1815,7 +1809,7 @@
           <xdr:cNvPr id="5" name="图片 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D4EAB97-9B20-40B1-8125-1B8D269558B0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D4EAB97-9B20-40B1-8125-1B8D269558B0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1824,7 +1818,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1860,7 +1854,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9783EC44-E85D-4588-BD4F-E7E3CC7CBD12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9783EC44-E85D-4588-BD4F-E7E3CC7CBD12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1869,7 +1863,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1904,7 +1898,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D75E937-54E0-40DD-8B70-F39034BA70AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D75E937-54E0-40DD-8B70-F39034BA70AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1907,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1948,7 +1942,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8095A3D-3229-4CFC-8A59-E215BE90C467}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8095A3D-3229-4CFC-8A59-E215BE90C467}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1957,7 +1951,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1992,7 +1986,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6320565A-F7A0-418F-A71E-E21F787CC809}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6320565A-F7A0-418F-A71E-E21F787CC809}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +1995,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2022,7 +2016,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2064,7 +2058,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2096,27 +2090,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2148,24 +2124,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2341,24 +2299,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C60:C94"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="104.33203125" customWidth="1"/>
+    <col min="3" max="3" width="104.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:3" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3" ht="27">
       <c r="C94" s="1" t="s">
         <v>1</v>
       </c>
@@ -2371,16 +2329,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B35"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="Q82" sqref="Q82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2">
       <c r="B35" t="s">
         <v>2</v>
       </c>
@@ -2393,14 +2351,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A641" workbookViewId="0">
       <selection activeCell="B661" sqref="B661"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
